--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/셀가운데배치(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/셀가운데배치(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_출판사\길벗\직장인엑셀_2018\부록CD\Chapter01\Section01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18BD38-0A9E-4699-B53A-D32EB3726877}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0086792D-2523-254E-8650-D540F59981CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D97F3D5-7400-4266-B712-9E5B01F961C8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{4D97F3D5-7400-4266-B712-9E5B01F961C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,11 +214,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,17 +228,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,30 +567,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3304E949-8B74-4F63-A7F4-CA4283ADB698}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:9" ht="17"/>
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -598,15 +601,15 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:9" ht="17"/>
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -620,10 +623,10 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -672,7 +675,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -701,7 +704,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -730,7 +733,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -759,7 +762,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -788,7 +791,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -817,15 +820,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" ht="17"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="3">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
